--- a/Doc/task.xlsx
+++ b/Doc/task.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\project\Elite-Code\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Elite-Code\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7DF33C-94A8-493F-8510-A0B863455BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A1960C-125B-46FB-B668-CB8A4DE2C6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="0" windowWidth="25725" windowHeight="21705" activeTab="1" xr2:uid="{33D21BAC-6772-46F7-B9CF-D91833276CD0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="19416" firstSheet="2" activeTab="2" xr2:uid="{33D21BAC-6772-46F7-B9CF-D91833276CD0}"/>
   </bookViews>
   <sheets>
-    <sheet name="复习类" sheetId="1" r:id="rId1"/>
-    <sheet name="项目搭建（后端）" sheetId="2" r:id="rId2"/>
+    <sheet name="复习类" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="5" state="hidden" r:id="rId2"/>
+    <sheet name="项目搭建（后端）" sheetId="2" r:id="rId3"/>
+    <sheet name="库表设计" sheetId="3" r:id="rId4"/>
+    <sheet name="思考" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,14 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>库表设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>板块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,10 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用CDN和轻量应用服务器搭建个人图床</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>搭建宝塔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,6 +237,14 @@
   </si>
   <si>
     <t>心得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安排时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验写在Controller还是Service好？因为就算写在Controller，Service方法也有可能对外暴露一个rpc协议的接口，由其他程序来调用。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -306,7 +305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -342,37 +341,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -394,20 +369,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -420,9 +386,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -438,7 +401,17 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -458,17 +431,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -788,12 +751,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -807,7 +770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>ROW()-1</f>
         <v>1</v>
@@ -816,32 +779,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -853,549 +816,588 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F7220D-D702-48AB-889F-BB5F98BF18EC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7767193-2C29-40E1-922A-2AFAD973C044}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="20.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="44.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="43.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="15"/>
+    <col min="1" max="1" width="0.88671875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="17">
+      <c r="E2" s="13">
         <v>45646.260416666664</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F2" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <f t="shared" ref="A4:A32" si="0">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="e">
+        <f>#REF!+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="e">
+        <f t="shared" ref="A5:A27" si="0">A4+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="7"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="16"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="C11" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="C19" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="8" t="s">
-        <v>36</v>
+      <c r="E22" s="5"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="12" t="s">
+      <c r="E23" s="5"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="13"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="9" t="s">
-        <v>47</v>
+      <c r="E26" s="5"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="6"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="e">
+        <f t="shared" ref="A28:A29" si="1">A27+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="C28" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="C29" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="14"/>
-    </row>
-    <row r="31" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
-        <f t="shared" ref="A33:A34" si="1">A32+1</f>
-        <v>32</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="14"/>
-    </row>
-    <row r="34" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="14"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B13"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:F1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2="R"</formula>
+  <conditionalFormatting sqref="B2:E1048576">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$F2="R"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{70035644-642D-4AD0-ABD2-7518D331753E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{70035644-642D-4AD0-ABD2-7518D331753E}">
+      <formula1>"R,S"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D15C06-D8F3-4386-9554-2A0E034B6D9F}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A2:F1048576">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$F2="R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{1E4CE4A9-19B2-4BFF-B05A-EA85959BB1DB}">
+      <formula1>"R,S"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A6B320-0304-49FF-8726-D940E8230209}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A2:F1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$F2="R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{7C272F70-4EDC-4751-A582-1BF52DAFB23D}">
       <formula1>"R,S"</formula1>
     </dataValidation>
   </dataValidations>
